--- a/Asset List.xlsx
+++ b/Asset List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_17a\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3247AB33-B239-4D3E-9FCF-01C8D54BFE76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{255D8548-7D23-495C-B409-0BD240C18863}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
   <si>
     <t>What is it</t>
   </si>
@@ -78,15 +78,24 @@
     <t>start button</t>
   </si>
   <si>
+    <t>StartButton</t>
+  </si>
+  <si>
     <t>quit button</t>
   </si>
   <si>
+    <t>QuitButton</t>
+  </si>
+  <si>
     <t>Liam</t>
   </si>
   <si>
     <t>back to menu button</t>
   </si>
   <si>
+    <t>MenuButton</t>
+  </si>
+  <si>
     <t>Ball launcher script</t>
   </si>
   <si>
@@ -117,21 +126,30 @@
     <t>SwitchLevel</t>
   </si>
   <si>
-    <t>Left Paddle Sprite</t>
-  </si>
-  <si>
-    <t>L_Paddle_sprite</t>
+    <t>Sound Manager</t>
+  </si>
+  <si>
+    <t>SoundManagerScript</t>
+  </si>
+  <si>
+    <t>Conor</t>
+  </si>
+  <si>
+    <t>Sound on Collide</t>
+  </si>
+  <si>
+    <t>SoundOnCollide</t>
+  </si>
+  <si>
+    <t>paddle sprite</t>
+  </si>
+  <si>
+    <t>Paddle_sprite</t>
   </si>
   <si>
     <t>Stephanie</t>
   </si>
   <si>
-    <t>right paddle sprite</t>
-  </si>
-  <si>
-    <t>R_Paddle_sprite</t>
-  </si>
-  <si>
     <t>Ball sprite</t>
   </si>
   <si>
@@ -147,13 +165,7 @@
     <t>Top border sprite</t>
   </si>
   <si>
-    <t>T_border_sprite</t>
-  </si>
-  <si>
-    <t>Bottom border sprite</t>
-  </si>
-  <si>
-    <t>B_border_sprite</t>
+    <t>border_sprite</t>
   </si>
   <si>
     <t>Main Menu Sprite</t>
@@ -168,52 +180,85 @@
     <t>GT_sprite</t>
   </si>
   <si>
-    <t>Base Game Button sprite</t>
-  </si>
-  <si>
-    <t>Base_button_sprite</t>
-  </si>
-  <si>
-    <t>Themed Game Button sprite</t>
-  </si>
-  <si>
-    <t>theme_button_sprite</t>
-  </si>
-  <si>
-    <t>Quit button sprite</t>
-  </si>
-  <si>
-    <t>Q_button sprite</t>
-  </si>
-  <si>
-    <t>1 Wins Sprite</t>
-  </si>
-  <si>
-    <t>1w_BG_sprite</t>
-  </si>
-  <si>
-    <t>2 Wins Sprite</t>
-  </si>
-  <si>
-    <t>2w_BG_sprite</t>
+    <t>Win Sprite</t>
+  </si>
+  <si>
+    <t>win_BG_sprite</t>
   </si>
   <si>
     <t>background music</t>
   </si>
   <si>
+    <t>Main Theme(Complete.wav)</t>
+  </si>
+  <si>
     <t>Manny</t>
   </si>
   <si>
     <t>hit sound (paddle)</t>
   </si>
   <si>
+    <t>ContactSound.wav</t>
+  </si>
+  <si>
     <t>title screen music</t>
   </si>
   <si>
-    <t>victory sound</t>
-  </si>
-  <si>
-    <t>hit sound (floor)</t>
+    <t>Title Theme(Complete).wav</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>MainMenu</t>
+  </si>
+  <si>
+    <t>Original Game</t>
+  </si>
+  <si>
+    <t>Level1</t>
+  </si>
+  <si>
+    <t>New Game</t>
+  </si>
+  <si>
+    <t>Level2</t>
+  </si>
+  <si>
+    <t>Liam Sandbox</t>
+  </si>
+  <si>
+    <t>LiamSandbox</t>
+  </si>
+  <si>
+    <t>Player 1 old win screen</t>
+  </si>
+  <si>
+    <t>Player1WinsBasic</t>
+  </si>
+  <si>
+    <t>Player 1 new win screen</t>
+  </si>
+  <si>
+    <t>Player1Wins</t>
+  </si>
+  <si>
+    <t>Player 2 old win screen</t>
+  </si>
+  <si>
+    <t>Player2WinsBasic</t>
+  </si>
+  <si>
+    <t>Player 2 new win screen</t>
+  </si>
+  <si>
+    <t>Player2Wins</t>
+  </si>
+  <si>
+    <t>Conor Sandbox</t>
+  </si>
+  <si>
+    <t>ConorSandbox</t>
   </si>
 </sst>
 </file>
@@ -531,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -609,32 +654,41 @@
       <c r="A8" t="s">
         <v>14</v>
       </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
       <c r="E8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
@@ -642,10 +696,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -653,10 +707,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
@@ -664,212 +718,255 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" t="s">
-        <v>30</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" t="s">
         <v>38</v>
-      </c>
-      <c r="E24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="C36" t="s">
+        <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="C38" t="s">
+        <v>57</v>
       </c>
       <c r="E38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
         <v>60</v>
       </c>
-      <c r="E40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="C41" t="s">
+        <v>61</v>
+      </c>
       <c r="E41" t="s">
-        <v>56</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
